--- a/tf_figure/PPP_corrected.xlsx
+++ b/tf_figure/PPP_corrected.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R60 </t>
+          <t>R60</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R61 </t>
+          <t>R61</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R62 </t>
+          <t>R62</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R63 </t>
+          <t>R63</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R64 </t>
+          <t>R64</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R65 </t>
+          <t>R65</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">R66 </t>
+          <t>R66</t>
         </is>
       </c>
     </row>
